--- a/src/main/resources/samples/CollectionServiceTest.xlsx
+++ b/src/main/resources/samples/CollectionServiceTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="testListUsers" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,31 +55,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>dodo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>value.id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -88,14 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -113,6 +84,22 @@
   </si>
   <si>
     <t>pap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2~3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2~3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3~4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -466,8 +453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -485,15 +472,15 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -508,7 +495,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B5"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -522,32 +509,32 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
+      <c r="A2" s="2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
+      <c r="A3" s="2">
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>14</v>
+      <c r="A4" s="2">
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>15</v>
+      <c r="A5" s="2">
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -571,17 +558,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -595,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -606,21 +593,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -630,8 +617,8 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
+      <c r="B3" s="2">
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -639,10 +626,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -650,10 +637,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="B5" s="2">
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
